--- a/data/case1/16/Qlm1_4.xlsx
+++ b/data/case1/16/Qlm1_4.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.093119678411703433</v>
+        <v>-0.093714853270462584</v>
       </c>
       <c r="B1" s="0">
-        <v>0.092954233780368156</v>
+        <v>0.093531712790372978</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.083464462738698231</v>
+        <v>-0.084097524412325875</v>
       </c>
       <c r="B2" s="0">
-        <v>0.083067050134650877</v>
+        <v>0.083683130729807154</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.033365213420255557</v>
+        <v>-0.033977177575641448</v>
       </c>
       <c r="B3" s="0">
-        <v>0.033343991970919973</v>
+        <v>0.033951005705759485</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.025343992219587719</v>
+        <v>-0.02595100583330634</v>
       </c>
       <c r="B4" s="0">
-        <v>0.025231406893677644</v>
+        <v>0.025828150869527278</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.022231407010545823</v>
+        <v>-0.022828150929305124</v>
       </c>
       <c r="B5" s="0">
-        <v>0.021860334299898199</v>
+        <v>0.022429891428383364</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0076840324473845811</v>
+        <v>-0.0086760630258648774</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0075596387120988595</v>
+        <v>0.0085270224705027431</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.00244036096444189</v>
+        <v>0.0014729773645716371</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.0024581745405578559</v>
+        <v>-0.0014972255512262223</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.012458174217852669</v>
+        <v>0.011497225386481347</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.012476260672676709</v>
+        <v>-0.011523252480719393</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.014476260575897015</v>
+        <v>0.013523252431637101</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.014489700877673428</v>
+        <v>-0.013541610853327057</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.016489700788202555</v>
+        <v>0.015541610807703776</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.016488337862496039</v>
+        <v>-0.01554100317556717</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.019488337745780626</v>
+        <v>0.018541003115952748</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.019488275939866462</v>
+        <v>-0.018541766544696081</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.022988275811027137</v>
+        <v>0.022041766479957925</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.023031020987343886</v>
+        <v>-0.022078446983656352</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.016631211988286765</v>
+        <v>0.017846492813091253</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.01678746628415162</v>
+        <v>-0.017986732195576671</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.024787466056257479</v>
+        <v>0.025986732078767893</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.024871891125471279</v>
+        <v>-0.02606369135902753</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080475923305458608</v>
+        <v>-0.0080494065617493504</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080316903144659335</v>
+        <v>0.0080324206535324905</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060316903724024762</v>
+        <v>-0.0060324206831596783</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060018764031712912</v>
+        <v>0.0060026646607012069</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.004001876464463372</v>
+        <v>-0.0040026646920985343</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999998835309469</v>
+        <v>0.0039999999400555097</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0034897712088834965</v>
+        <v>-0.0034341884640234355</v>
       </c>
       <c r="B18" s="0">
-        <v>0.0034227684267484904</v>
+        <v>0.003360626855187121</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.00057723146045995932</v>
+        <v>0.0006393730867793046</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.001120941052817237</v>
+        <v>-0.0012011640716531602</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.0051209409364041392</v>
+        <v>0.005201164012420989</v>
       </c>
       <c r="B20" s="0">
-        <v>-0.0052681156219058778</v>
+        <v>-0.0053562533537920842</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.0092681155059572973</v>
+        <v>0.0093562532948716637</v>
       </c>
       <c r="B21" s="0">
-        <v>-0.0094966408989627382</v>
+        <v>-0.0095951682939476868</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045701836849346478</v>
+        <v>-0.04570595322301152</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045493451735406865</v>
+        <v>0.045495200521422419</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.04049345190863729</v>
+        <v>-0.040495200609847792</v>
       </c>
       <c r="B23" s="0">
-        <v>0.04009712503867835</v>
+        <v>0.040097956956954839</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020097125645903269</v>
+        <v>-0.020097957267005917</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999383494504</v>
+        <v>0.019999999685413883</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.012176301955680202</v>
+        <v>-0.011753828454326154</v>
       </c>
       <c r="B25" s="0">
-        <v>0.012177360387831015</v>
+        <v>0.011753862112023228</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0096773605051101441</v>
+        <v>-0.0092538621711621971</v>
       </c>
       <c r="B26" s="0">
-        <v>0.0096778327670214992</v>
+        <v>0.0092535631601275981</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0071778328849423367</v>
+        <v>-0.0067535632196875639</v>
       </c>
       <c r="B27" s="0">
-        <v>0.0071638032928160733</v>
+        <v>0.0067423213653805547</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0051638034023095969</v>
+        <v>-0.0047423214201254282</v>
       </c>
       <c r="B28" s="0">
-        <v>0.0051610654300882075</v>
+        <v>0.0047402808146204123</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0018389343206726139</v>
+        <v>0.0022597190591087113</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.0018382643386152253</v>
+        <v>-0.0022595366654538651</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.061838262634160035</v>
+        <v>0.062259535792228871</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.062112142282359617</v>
+        <v>-0.062542993638926347</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.045798452637539455</v>
+        <v>0.046068838155784775</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.045872675543309427</v>
+        <v>-0.046145434256697371</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040003426969814626</v>
+        <v>-0.0040007170905571598</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999998747468624</v>
+        <v>0.0039999999357274163</v>
       </c>
     </row>
   </sheetData>
